--- a/ref/sample_info.xlsx
+++ b/ref/sample_info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
   <si>
     <t xml:space="preserve">experiment</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">vaccination</t>
   </si>
   <si>
+    <t xml:space="preserve">cell_sort</t>
+  </si>
+  <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
@@ -65,10 +68,16 @@
     <t xml:space="preserve">single</t>
   </si>
   <si>
+    <t xml:space="preserve">CD45neg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Day 2, CD45- cells</t>
   </si>
   <si>
     <t xml:space="preserve">GEX_CD45pos_d2-ADT_CD45pos_d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD45pos</t>
   </si>
   <si>
     <t xml:space="preserve">Day 2, CD45+ cells</t>
@@ -330,13 +339,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -363,521 +372,578 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
+      <c r="I10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -896,67 +962,67 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/ref/sample_info.xlsx
+++ b/ref/sample_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="72">
   <si>
     <t xml:space="preserve">experiment</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ovalbumin</t>
   </si>
   <si>
     <t xml:space="preserve">ABPS2</t>
@@ -341,11 +344,11 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -372,7 +375,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -404,7 +407,7 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -436,7 +439,7 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -468,7 +471,7 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -500,7 +503,7 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -532,7 +535,7 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -564,7 +567,7 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -596,7 +599,7 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -625,7 +628,7 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -654,7 +657,7 @@
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -686,7 +689,7 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -718,7 +721,7 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -747,7 +750,7 @@
       <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -779,7 +782,7 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -811,7 +814,7 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -840,7 +843,7 @@
       <c r="H16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -872,7 +875,7 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -904,7 +907,7 @@
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -933,7 +936,7 @@
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -943,7 +946,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -956,13 +959,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -976,14 +979,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
+      <c r="C2" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,15 +997,15 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1016,13 +1019,24 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/ref/sample_info.xlsx
+++ b/ref/sample_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" state="visible" r:id="rId2"/>
@@ -104,6 +104,24 @@
     <t xml:space="preserve">211230_novogene,220128_A00405_0521_AHH7JVDSX3,220311_A00405_0541_AHCMMHDSX3</t>
   </si>
   <si>
+    <t xml:space="preserve">BT_GEX_3-BT_ADT_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEC-2_r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3wk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 21, CD45-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT_GEX_4-BT_ADT_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEC-2_r2</t>
+  </si>
+  <si>
     <t xml:space="preserve">BT_GEX_5-BT_ADT_5</t>
   </si>
   <si>
@@ -116,24 +134,6 @@
     <t xml:space="preserve">Day 42, CD45-</t>
   </si>
   <si>
-    <t xml:space="preserve">BT_GEX_3-BT_ADT_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEC-2_r1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3wk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day 21, CD45-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT_GEX_4-BT_ADT_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEC-2_r2</t>
-  </si>
-  <si>
     <t xml:space="preserve">BT_GEX_1-BT_ADT_1</t>
   </si>
   <si>
@@ -155,6 +155,15 @@
     <t xml:space="preserve">LEC-1_LEC-2_r2</t>
   </si>
   <si>
+    <t xml:space="preserve">BT_GEX_8-BT_ADT_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC-2_r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 21, CD45+</t>
+  </si>
+  <si>
     <t xml:space="preserve">BT_GEX_7-BT_ADT_7</t>
   </si>
   <si>
@@ -162,15 +171,6 @@
   </si>
   <si>
     <t xml:space="preserve">Day 42, CD45+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT_GEX_8-BT_ADT_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC-2_r1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day 21, CD45+</t>
   </si>
   <si>
     <t xml:space="preserve">BT_GEX_6-BT_ADT_6</t>
@@ -344,11 +344,11 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="14:14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -527,7 +527,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>29</v>
@@ -562,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
@@ -571,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,16 +585,16 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -603,7 +603,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,7 +681,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>29</v>
@@ -713,10 +713,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
@@ -777,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>14</v>
@@ -786,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,7 +809,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,7 +902,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,11 +961,11 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="14:14 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -979,13 +979,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -997,7 +997,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +1008,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,7 +1019,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,7 +1030,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ref/sample_info.xlsx
+++ b/ref/sample_info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
   <si>
     <t xml:space="preserve">experiment</t>
   </si>
@@ -50,7 +50,13 @@
     <t xml:space="preserve">cell_sort</t>
   </si>
   <si>
-    <t xml:space="preserve">notes</t>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemistry</t>
   </si>
   <si>
     <t xml:space="preserve">exp-0</t>
@@ -74,6 +80,12 @@
     <t xml:space="preserve">Day 2, CD45- cells</t>
   </si>
   <si>
+    <t xml:space="preserve">10X Chromium Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Cell 3' v3</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEX_CD45pos_d2-ADT_CD45pos_d2</t>
   </si>
   <si>
@@ -192,6 +204,12 @@
   </si>
   <si>
     <t xml:space="preserve">LEC-P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10X Chromium X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Cell 3' v3 HT</t>
   </si>
   <si>
     <t xml:space="preserve">stromal_P4-JH300_2</t>
@@ -342,13 +360,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="14:14"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -381,566 +399,680 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44631</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -962,75 +1094,75 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="14:14 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
